--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H2">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J2">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4025163333333333</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N2">
-        <v>1.207549</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O2">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P2">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q2">
-        <v>0.07917939044633333</v>
+        <v>2.544792647977778</v>
       </c>
       <c r="R2">
-        <v>0.712614514017</v>
+        <v>22.9031338318</v>
       </c>
       <c r="S2">
-        <v>0.0008600608453921089</v>
+        <v>0.01986989276490267</v>
       </c>
       <c r="T2">
-        <v>0.0008600608453921088</v>
+        <v>0.01986989276490267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.196711</v>
+        <v>0.1433473333333333</v>
       </c>
       <c r="H3">
-        <v>0.590133</v>
+        <v>0.430042</v>
       </c>
       <c r="I3">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123204</v>
       </c>
       <c r="J3">
-        <v>0.05713779197487898</v>
+        <v>0.03250327325123203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.37655666666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N3">
-        <v>43.12967</v>
+        <v>33.861648</v>
       </c>
       <c r="O3">
-        <v>0.5376220787283691</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P3">
-        <v>0.537622078728369</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q3">
-        <v>2.828026838456666</v>
+        <v>1.617992314357333</v>
       </c>
       <c r="R3">
-        <v>25.45224154611</v>
+        <v>14.561930829216</v>
       </c>
       <c r="S3">
-        <v>0.03071853849548356</v>
+        <v>0.01263338048632937</v>
       </c>
       <c r="T3">
-        <v>0.03071853849548355</v>
+        <v>0.01263338048632937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,25 +655,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196711</v>
+        <v>2.238359333333333</v>
       </c>
       <c r="H4">
-        <v>0.590133</v>
+        <v>6.715078</v>
       </c>
       <c r="I4">
-        <v>0.05713779197487898</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J4">
-        <v>0.05713779197487898</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.96193566666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N4">
-        <v>35.885807</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O4">
-        <v>0.4473255222260004</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P4">
-        <v>0.4473255222260002</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q4">
-        <v>2.353044326925667</v>
+        <v>39.73677251291112</v>
       </c>
       <c r="R4">
-        <v>21.177398942331</v>
+        <v>357.6309526162</v>
       </c>
       <c r="S4">
-        <v>0.02555919263400331</v>
+        <v>0.3102670896516087</v>
       </c>
       <c r="T4">
-        <v>0.0255591926340033</v>
+        <v>0.3102670896516087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>6.715078</v>
       </c>
       <c r="I5">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813599</v>
       </c>
       <c r="J5">
-        <v>0.6501665384906222</v>
+        <v>0.5075365083813598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4025163333333333</v>
+        <v>11.287216</v>
       </c>
       <c r="N5">
-        <v>1.207549</v>
+        <v>33.861648</v>
       </c>
       <c r="O5">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P5">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q5">
-        <v>0.9009761915357778</v>
+        <v>25.26484528094933</v>
       </c>
       <c r="R5">
-        <v>8.108785723822001</v>
+        <v>227.383607528544</v>
       </c>
       <c r="S5">
-        <v>0.009786566183477202</v>
+        <v>0.1972694187297512</v>
       </c>
       <c r="T5">
-        <v>0.0097865661834772</v>
+        <v>0.1972694187297512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.238359333333333</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H6">
-        <v>6.715078</v>
+        <v>4.796932</v>
       </c>
       <c r="I6">
-        <v>0.6501665384906222</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J6">
-        <v>0.6501665384906222</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.37655666666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N6">
-        <v>43.12967</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O6">
-        <v>0.5376220787283691</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P6">
-        <v>0.537622078728369</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q6">
-        <v>32.17989979602888</v>
+        <v>28.38605830697778</v>
       </c>
       <c r="R6">
-        <v>289.61909816426</v>
+        <v>255.4745247628</v>
       </c>
       <c r="S6">
-        <v>0.3495438859429565</v>
+        <v>0.2216400361837451</v>
       </c>
       <c r="T6">
-        <v>0.3495438859429564</v>
+        <v>0.2216400361837451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.238359333333333</v>
+        <v>1.598977333333333</v>
       </c>
       <c r="H7">
-        <v>6.715078</v>
+        <v>4.796932</v>
       </c>
       <c r="I7">
-        <v>0.6501665384906222</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="J7">
-        <v>0.6501665384906222</v>
+        <v>0.362559916388583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.96193566666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N7">
-        <v>35.885807</v>
+        <v>33.861648</v>
       </c>
       <c r="O7">
-        <v>0.4473255222260004</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P7">
-        <v>0.4473255222260002</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q7">
-        <v>26.77511034421622</v>
+        <v>18.04800254043733</v>
       </c>
       <c r="R7">
-        <v>240.975993097946</v>
+        <v>162.432022863936</v>
       </c>
       <c r="S7">
-        <v>0.2908360863641886</v>
+        <v>0.1409198802048379</v>
       </c>
       <c r="T7">
-        <v>0.2908360863641885</v>
+        <v>0.1409198802048379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2829016666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H8">
-        <v>0.8487049999999999</v>
+        <v>0.188809</v>
       </c>
       <c r="I8">
-        <v>0.08217322152470656</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J8">
-        <v>0.08217322152470656</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4025163333333333</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N8">
-        <v>1.207549</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O8">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P8">
-        <v>0.01505239904563061</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q8">
-        <v>0.1138725415605555</v>
+        <v>1.117285649011111</v>
       </c>
       <c r="R8">
-        <v>1.024852874045</v>
+        <v>10.0555708411</v>
       </c>
       <c r="S8">
-        <v>0.001236904121254886</v>
+        <v>0.00872383298154252</v>
       </c>
       <c r="T8">
-        <v>0.001236904121254886</v>
+        <v>0.00872383298154252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2829016666666667</v>
+        <v>0.06293633333333333</v>
       </c>
       <c r="H9">
-        <v>0.8487049999999999</v>
+        <v>0.188809</v>
       </c>
       <c r="I9">
-        <v>0.08217322152470656</v>
+        <v>0.01427049106666761</v>
       </c>
       <c r="J9">
-        <v>0.08217322152470656</v>
+        <v>0.0142704910666676</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.37655666666667</v>
+        <v>11.287216</v>
       </c>
       <c r="N9">
-        <v>43.12967</v>
+        <v>33.861648</v>
       </c>
       <c r="O9">
-        <v>0.5376220787283691</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P9">
-        <v>0.537622078728369</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q9">
-        <v>4.067151841927777</v>
+        <v>0.7103759885813333</v>
       </c>
       <c r="R9">
-        <v>36.60436657734999</v>
+        <v>6.393383897232001</v>
       </c>
       <c r="S9">
-        <v>0.04417813817191951</v>
+        <v>0.005546658085125085</v>
       </c>
       <c r="T9">
-        <v>0.0441781381719195</v>
+        <v>0.005546658085125084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2829016666666667</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H10">
-        <v>0.8487049999999999</v>
+        <v>1.099868</v>
       </c>
       <c r="I10">
-        <v>0.08217322152470656</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J10">
-        <v>0.08217322152470656</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.96193566666667</v>
+        <v>17.75263333333334</v>
       </c>
       <c r="N10">
-        <v>35.885807</v>
+        <v>53.25790000000001</v>
       </c>
       <c r="O10">
-        <v>0.4473255222260004</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="P10">
-        <v>0.4473255222260002</v>
+        <v>0.6113197465165913</v>
       </c>
       <c r="Q10">
-        <v>3.384051536659444</v>
+        <v>6.508517773022222</v>
       </c>
       <c r="R10">
-        <v>30.456463829935</v>
+        <v>58.5766599572</v>
       </c>
       <c r="S10">
-        <v>0.03675817923153218</v>
+        <v>0.05081889493479234</v>
       </c>
       <c r="T10">
-        <v>0.03675817923153216</v>
+        <v>0.05081889493479234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01839066666666667</v>
+        <v>0.3666226666666666</v>
       </c>
       <c r="H11">
-        <v>0.05517200000000001</v>
+        <v>1.099868</v>
       </c>
       <c r="I11">
-        <v>0.00534185727427211</v>
+        <v>0.0831298109121576</v>
       </c>
       <c r="J11">
-        <v>0.00534185727427211</v>
+        <v>0.08312981091215758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4025163333333333</v>
+        <v>11.287216</v>
       </c>
       <c r="N11">
-        <v>1.207549</v>
+        <v>33.861648</v>
       </c>
       <c r="O11">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="P11">
-        <v>0.01505239904563061</v>
+        <v>0.3886802534834088</v>
       </c>
       <c r="Q11">
-        <v>0.007402543714222223</v>
+        <v>4.138149229162666</v>
       </c>
       <c r="R11">
-        <v>0.06662289342800001</v>
+        <v>37.243343062464</v>
       </c>
       <c r="S11">
-        <v>8.040776733714847E-05</v>
+        <v>0.03231091597736525</v>
       </c>
       <c r="T11">
-        <v>8.040776733714847E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.01839066666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.05517200000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.00534185727427211</v>
-      </c>
-      <c r="J12">
-        <v>0.00534185727427211</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>14.37655666666667</v>
-      </c>
-      <c r="N12">
-        <v>43.12967</v>
-      </c>
-      <c r="O12">
-        <v>0.5376220787283691</v>
-      </c>
-      <c r="P12">
-        <v>0.537622078728369</v>
-      </c>
-      <c r="Q12">
-        <v>0.2643944614711111</v>
-      </c>
-      <c r="R12">
-        <v>2.37955015324</v>
-      </c>
-      <c r="S12">
-        <v>0.002871900412064432</v>
-      </c>
-      <c r="T12">
-        <v>0.002871900412064431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01839066666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.05517200000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.00534185727427211</v>
-      </c>
-      <c r="J13">
-        <v>0.00534185727427211</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.96193566666667</v>
-      </c>
-      <c r="N13">
-        <v>35.885807</v>
-      </c>
-      <c r="O13">
-        <v>0.4473255222260004</v>
-      </c>
-      <c r="P13">
-        <v>0.4473255222260002</v>
-      </c>
-      <c r="Q13">
-        <v>0.2199879715337778</v>
-      </c>
-      <c r="R13">
-        <v>1.979891743804</v>
-      </c>
-      <c r="S13">
-        <v>0.002389549094870531</v>
-      </c>
-      <c r="T13">
-        <v>0.00238954909487053</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.706385</v>
-      </c>
-      <c r="H14">
-        <v>2.119155</v>
-      </c>
-      <c r="I14">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="J14">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.4025163333333333</v>
-      </c>
-      <c r="N14">
-        <v>1.207549</v>
-      </c>
-      <c r="O14">
-        <v>0.01505239904563061</v>
-      </c>
-      <c r="P14">
-        <v>0.01505239904563061</v>
-      </c>
-      <c r="Q14">
-        <v>0.2843315001216667</v>
-      </c>
-      <c r="R14">
-        <v>2.558983501095</v>
-      </c>
-      <c r="S14">
-        <v>0.003088460128169268</v>
-      </c>
-      <c r="T14">
-        <v>0.003088460128169268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.706385</v>
-      </c>
-      <c r="H15">
-        <v>2.119155</v>
-      </c>
-      <c r="I15">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="J15">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>14.37655666666667</v>
-      </c>
-      <c r="N15">
-        <v>43.12967</v>
-      </c>
-      <c r="O15">
-        <v>0.5376220787283691</v>
-      </c>
-      <c r="P15">
-        <v>0.537622078728369</v>
-      </c>
-      <c r="Q15">
-        <v>10.15538398098333</v>
-      </c>
-      <c r="R15">
-        <v>91.39845582885</v>
-      </c>
-      <c r="S15">
-        <v>0.110309615705945</v>
-      </c>
-      <c r="T15">
-        <v>0.110309615705945</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.706385</v>
-      </c>
-      <c r="H16">
-        <v>2.119155</v>
-      </c>
-      <c r="I16">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="J16">
-        <v>0.2051805907355201</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>11.96193566666667</v>
-      </c>
-      <c r="N16">
-        <v>35.885807</v>
-      </c>
-      <c r="O16">
-        <v>0.4473255222260004</v>
-      </c>
-      <c r="P16">
-        <v>0.4473255222260002</v>
-      </c>
-      <c r="Q16">
-        <v>8.449731925898334</v>
-      </c>
-      <c r="R16">
-        <v>76.047587333085</v>
-      </c>
-      <c r="S16">
-        <v>0.09178251490140577</v>
-      </c>
-      <c r="T16">
-        <v>0.09178251490140574</v>
+        <v>0.03231091597736525</v>
       </c>
     </row>
   </sheetData>
